--- a/AllocationCalculator/Content/Uploads/h sheet.xlsx
+++ b/AllocationCalculator/Content/Uploads/h sheet.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
   <si>
     <t>LOCAL EDUCATION AGENCY</t>
   </si>
@@ -628,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF19"/>
+  <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1265,6 +1265,116 @@
       <c r="AE19" s="21"/>
       <c r="AF19" s="16"/>
     </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="62">
+        <v>119350303</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="65">
+        <v>176540.50391487594</v>
+      </c>
+      <c r="H22" s="64">
+        <v>2441</v>
+      </c>
+      <c r="I22" s="57">
+        <f t="shared" ref="I22:I23" si="1">(G22-H22)</f>
+        <v>174099.50391487594</v>
+      </c>
+      <c r="J22" s="66">
+        <v>204863.27976810708</v>
+      </c>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="16"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="62">
+        <v>123460302</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="65">
+        <v>471121.02052754903</v>
+      </c>
+      <c r="H23" s="64">
+        <v>0</v>
+      </c>
+      <c r="I23" s="57">
+        <f t="shared" si="1"/>
+        <v>471121.02052754903</v>
+      </c>
+      <c r="J23" s="66">
+        <v>432652.86429048353</v>
+      </c>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="16"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:O1"/>

--- a/AllocationCalculator/Content/Uploads/h sheet.xlsx
+++ b/AllocationCalculator/Content/Uploads/h sheet.xlsx
@@ -631,7 +631,7 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1284,19 +1284,10 @@
       <c r="F22" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="65">
-        <v>176540.50391487594</v>
-      </c>
-      <c r="H22" s="64">
-        <v>2441</v>
-      </c>
-      <c r="I22" s="57">
-        <f t="shared" ref="I22:I23" si="1">(G22-H22)</f>
-        <v>174099.50391487594</v>
-      </c>
-      <c r="J22" s="66">
-        <v>204863.27976810708</v>
-      </c>
+      <c r="G22" s="65"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="66"/>
       <c r="K22" s="48"/>
       <c r="L22" s="48"/>
       <c r="M22" s="49"/>
@@ -1339,19 +1330,10 @@
       <c r="F23" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="65">
-        <v>471121.02052754903</v>
-      </c>
-      <c r="H23" s="64">
-        <v>0</v>
-      </c>
-      <c r="I23" s="57">
-        <f t="shared" si="1"/>
-        <v>471121.02052754903</v>
-      </c>
-      <c r="J23" s="66">
-        <v>432652.86429048353</v>
-      </c>
+      <c r="G23" s="65"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="66"/>
       <c r="K23" s="48"/>
       <c r="L23" s="48"/>
       <c r="M23" s="49"/>
